--- a/BootTransaction/src/Bank Checklist.xlsx
+++ b/BootTransaction/src/Bank Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>PMD</t>
   </si>
   <si>
-    <t>Checklist</t>
-  </si>
-  <si>
     <t>Logger</t>
   </si>
   <si>
@@ -86,10 +83,13 @@
     <t>withdraw()</t>
   </si>
   <si>
-    <t>createTrans()</t>
-  </si>
-  <si>
     <t>viewReport()</t>
+  </si>
+  <si>
+    <t>createTransaction()</t>
+  </si>
+  <si>
+    <t>Functions---------&gt;</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,294 +430,331 @@
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BootTransaction/src/Bank Checklist.xlsx
+++ b/BootTransaction/src/Bank Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>PMD</t>
   </si>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,18 +682,32 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>

--- a/BootTransaction/src/Bank Checklist.xlsx
+++ b/BootTransaction/src/Bank Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>PMD</t>
   </si>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,32 +682,18 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
